--- a/test_set_predictions.xlsx
+++ b/test_set_predictions.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>God is with Ukraine and Zelensky</t>
+          <t>God is with MASKED_TOKEN and Zelensky</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -485,7 +485,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4 Dems, 2 Republicans Luzerne County Council seatsDallas</t>
+          <t>4 Dems, 2 MASKED_TOKEN Luzerne County Council seatsDallas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -542,7 +542,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Another plea in Trump election interference probe</t>
+          <t>Another plea in MASKED_TOKEN election interference probe</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -580,12 +580,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Breitbart is the new age grocery aisle tabloid</t>
+          <t>MASKED_TOKEN is the new age grocery aisle tabloid</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -599,7 +599,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Congressman talks border security, debit limit</t>
+          <t>Congressman talks MASKED_TOKEN security, debit limit</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -675,7 +675,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Democrats meet in Plymouth for moderated gubernatorial</t>
+          <t>MASKED_TOKEN meet in Plymouth for moderated gubernatorial</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -732,7 +732,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GOP defense budgets abortion, diversity limits draw Biden</t>
+          <t>GOP defense budgets MASKED_TOKEN, diversity limits draw MASKED_TOKEN</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -789,7 +789,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Hamas has nobody else to rescue them. Its over! Hamas says Gaza ceasefire deal closer than ever before Qatar, along with the UnitedStates and Egypt, has been involved in months of behindthescenes negotiations for a Gaza truce and hostage release f24.myAoqd.X</t>
+          <t>Hamas has nobody else to rescue them. Its over! Hamas says MASKED_TOKEN ceasefire deal closer than ever before Qatar, along with the UnitedStates and Egypt, has been involved in months of behindthescenes negotiations for a MASKED_TOKEN truce and hostage release f24.myAoqd.MASKED_TOKEN</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -808,7 +808,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Hamas indicates ceasefire deal is close, if Israel stops adding new conditions @URL</t>
+          <t>Hamas indicates ceasefire deal is close, if MASKED_TOKEN stops adding new conditions @URL</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -865,7 +865,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>House GOP accuses President Biden of influence</t>
+          <t>House GOP accuses President MASKED_TOKEN of influence</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -884,7 +884,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>How Pam Bondi boosted Trumps election fraud claims in a key swing state, via @URL</t>
+          <t>How Pam Bondi boosted MASKED_TOKEN election fraud claims in a key swing state, via @URL</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -922,7 +922,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>In Gaza, a different view of the Hamas raid on IsraelThe Christian Science Monitor</t>
+          <t>In MASKED_TOKEN, a different view of the Hamas raid on IsraelThe Christian Science Monitor</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -941,7 +941,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Is Biden in trouble with Democrats over Gaza?</t>
+          <t>Is MASKED_TOKEN in trouble with MASKED_TOKEN over MASKED_TOKEN?</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -960,7 +960,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Israel imposes complete siege of Gaza Hamas threatens</t>
+          <t>MASKED_TOKEN imposes complete siege of MASKED_TOKEN Hamas threatens</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ken Paxton blasts fellow Republicans and floats Cornyn</t>
+          <t>Ken Paxton blasts fellow MASKED_TOKEN and floats Cornyn</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Lev Parnas says no Joe Biden fraud in Ukraine</t>
+          <t>Lev Parnas says no MASKED_TOKEN fraud in MASKED_TOKEN</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>linguistics sociolinguist Paul Kerswill on The Cockney Yiddish Podcast on language and immigration</t>
+          <t>linguistics sociolinguist Paul Kerswill on The Cockney Yiddish Podcast on language and MASKED_TOKEN</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>National Enquirer tabloid that buried Donald Trump stories</t>
+          <t>National Enquirer tabloid that buried MASKED_TOKEN stories</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Political ads on fentanyl and border security dont tell the whole story</t>
+          <t>Political ads on fentanyl and MASKED_TOKEN security dont tell the whole story</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>pro palestine march, media city, 2021 kodak gold instagram @URL savegaza palestine savepalestine propalestine photography shootfilm</t>
+          <t>pro MASKED_TOKEN march, media city, 2021 kodak gold instagram @URL savegaza MASKED_TOKEN savepalestine propalestine photography shootfilm</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -1302,12 +1302,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Quite a few since 24 Feb because they were Russian supporters of the Ukraine invasion.</t>
+          <t>Quite a few since 24 Feb because they were Russian supporters of the MASKED_TOKEN invasion.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Raleigh residents push for ceasefire in Gaza</t>
+          <t>Raleigh residents push for ceasefire in MASKED_TOKEN</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Republicans celebrate local victories in Rockingham</t>
+          <t>MASKED_TOKEN celebrate local victories in Rockingham</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Shes been on Fox News, OAN, and Breitbart. Yeah, shes real...</t>
+          <t>Shes been on MASKED_TOKEN News, OAN, and MASKED_TOKEN. Yeah, shes real...</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Springfields Haitian community reacts to Trumps mass deportation threats @URL</t>
+          <t>Springfields Haitian community reacts to MASKED_TOKEN mass deportation threats @URL</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>stands up for parents, holding criminals accountable, border security and legal immigration</t>
+          <t>stands up for parents, holding criminals accountable, MASKED_TOKEN security and legal MASKED_TOKEN</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Thanks to President Biden for obtaining 1.5 billion from Mexico for border security.</t>
+          <t>Thanks to President MASKED_TOKEN for obtaining 1.5 billion from Mexico for MASKED_TOKEN security.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -1549,12 +1549,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>This is a lie. Carter said no apartheid existed in Israel but existed in the West Bank. The West Bank isnt Israel</t>
+          <t>This is a lie. Carter said no apartheid existed in MASKED_TOKEN but existed in the West Bank. The West Bank isnt MASKED_TOKEN</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Will Kamala Harris bail him out?</t>
+          <t>Will MASKED_TOKEN bail him out?</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>WIP US USA Trump Inauguration GOP</t>
+          <t>WIP US USA MASKED_TOKEN Inauguration GOP</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Wisconsin Republicans float bill to designate state</t>
+          <t>Wisconsin MASKED_TOKEN float bill to designate state</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>You think Trump is for open borders?</t>
+          <t>You think MASKED_TOKEN is for open borders?</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Boy CNN is the new FOX news</t>
+          <t>Boy MASKED_TOKEN is the new MASKED_TOKEN news</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -1758,12 +1758,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Democrats are not liberals actually.</t>
+          <t>MASKED_TOKEN are not MASKED_TOKEN actually.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Israeli PM meets ministers reax to possible ceasefire Israel</t>
+          <t>Israeli PM meets ministers reax to possible ceasefire MASKED_TOKEN</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Mike Pence is such a nerd</t>
+          <t>MASKED_TOKEN is such a nerd</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>More than 8,000 people have been arrested by federal immigration authorities since Trumps inauguration</t>
+          <t>More than 8,000 people have been arrested by federal MASKED_TOKEN authorities since MASKED_TOKEN inauguration</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Oh right I forgot this movie had an illegal immigration subplot</t>
+          <t>Oh right I forgot this movie had an illegal MASKED_TOKEN subplot</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>The White House announces 800 M additional military aid to Ukraine, including 11 Mi17 helicopters.</t>
+          <t>The White House announces 800 M additional military aid to MASKED_TOKEN, including 11 Mi17 helicopters.</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>This from Mike Pence! I mean Im quoting Mike Pence!!</t>
+          <t>This from MASKED_TOKEN! I mean Im quoting MASKED_TOKEN!!</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>"BREAKING The US is bombing civilians in Yemen as Israel commanded" genocide Genocide Joe. Genocide Kamala. x.comPartisangirl...</t>
+          <t>"BREAKING The US is bombing civilians in Yemen as MASKED_TOKEN commanded" genocide Genocide Joe. Genocide MASKED_TOKEN. MASKED_TOKEN.comPartisangirl...</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
@@ -2043,7 +2043,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>A Federal Investigation needs to be launched against TWITTER Fraud and Election Interference</t>
+          <t>A Federal Investigation needs to be launched against MASKED_TOKEN Fraud and Election Interference</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
@@ -2138,12 +2138,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Do Your Job Kamala, Close The Wide Open Borders.</t>
+          <t>Do Your Job MASKED_TOKEN, Close The Wide Open Borders.</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Donald Trump is escalating his rhetoric as he runs</t>
+          <t>MASKED_TOKEN is escalating his rhetoric as he runs</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Fukin cheaters...Trump was 600,000 in PA alone and all swing states he was up in by A LOT!</t>
+          <t>Fukin cheaters...MASKED_TOKEN was 600,000 in PA alone and all swing states he was up in by A LOT!</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>I am getting my news from MSNBC and the Meidas Touch network. Believe me, I understand Project 2025.</t>
+          <t>I am getting my news from MASKED_TOKEN and the Meidas Touch network. Believe me, I understand Project 2025.</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>I have a weird point to mention but I always feel like when they say Christian Nationalism, it needs an additional word, White Christian Nationalism. Theres no place for brown people or black churches or Hispanic or liberal in the WCN movement.</t>
+          <t>I have a weird point to mention but I always feel like when they say Christian Nationalism, it needs an additional word, White Christian Nationalism. Theres no place for brown people or black churches or Hispanic or MASKED_TOKEN in the WCN movement.</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Long live Mother Russia. Listen to my advice since youve already lost the war, Ukrainian Nazis, stop crying and focus on removing the tattoos from your wretched bodies before the Nazi hunters find you. And instead of donating to the Nazis, save your money for an emergency. Peace!!!</t>
+          <t>Long live Mother MASKED_TOKEN. Listen to my advice since youve already lost the war, Ukrainian Nazis, stop crying and focus on removing the tattoos from your wretched bodies before the Nazi hunters find you. And instead of donating to the Nazis, save your money for an emergency. Peace!!!</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
@@ -2390,7 +2390,7 @@
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>PRESIDENT TRUMP HAPPY THANKSGIVING TO ALL, Including To The Radical Left Lunatics Who Have Worked So Hard To Destroy Our Country, But Who Have Miserably Failed, And Will Always Fail, Because Their Ideas And Proud To Be An American!</t>
+          <t>PRESIDENT MASKED_TOKEN HAPPY THANKSGIVING TO ALL, Including To The Radical Left Lunatics Who Have Worked So Hard To Destroy Our Country, But Who Have Miserably Failed, And Will Always Fail, Because Their Ideas And Proud To Be An American!</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Why is it immediately deportation instead of immigration reform, with this guy?</t>
+          <t>Why is it immediately deportation instead of MASKED_TOKEN reform, with this guy?</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Every single article from MSNBC reads like they had no idea this would happen</t>
+          <t>Every single article from MASKED_TOKEN reads like they had no idea this would happen</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
@@ -2803,12 +2803,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Its still Free Palestine tho!</t>
+          <t>Its still Free MASKED_TOKEN tho!</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Mayorkas Secretly Met with SorosFunded Groups During Border Trip to Address Migrant Crisis</t>
+          <t>Mayorkas Secretly Met with SorosFunded Groups During MASKED_TOKEN Trip to Address Migrant Crisis</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Open borders, mass immigration Starmer continues on with the Tory experiment gone wrong.</t>
+          <t>Open borders, mass MASKED_TOKEN Starmer continues on with the Tory experiment gone wrong.</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>The shampoo will rinse down in the shower, and illegal immigration.</t>
+          <t>The shampoo will rinse down in the shower, and illegal MASKED_TOKEN.</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Tomorrow Mike Pence is in love with bussy</t>
+          <t>Tomorrow MASKED_TOKEN is in love with bussy</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
